--- a/public/example/blackwhite_import_example.xlsx
+++ b/public/example/blackwhite_import_example.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>alias</t>
   </si>
@@ -31,9 +31,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>who_created</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>mo ta 112</t>
   </si>
   <si>
-    <t>/123/444</t>
-  </si>
-  <si>
     <t>tungnt112</t>
   </si>
   <si>
@@ -58,9 +52,6 @@
     <t>moô tả 456</t>
   </si>
   <si>
-    <t>/jkl</t>
-  </si>
-  <si>
     <t>hungnm72</t>
   </si>
   <si>
@@ -68,6 +59,12 @@
   </si>
   <si>
     <t>2019-01-05 00:00:00</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>teestttt</t>
   </si>
 </sst>
 </file>
@@ -413,19 +410,20 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,63 +442,54 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>123</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>456789</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
